--- a/biology/Médecine/NFE2L2/NFE2L2.xlsx
+++ b/biology/Médecine/NFE2L2/NFE2L2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  NFE2L2 (« Nuclear factor (erythroid-derived 2)-like 2 ») ou Nrf2 est un facteur de transcription. Son gène est le NFE2L2 situé sur le chromosome 2 humain.
@@ -512,10 +524,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a un rôle protecteur contre le stress oxydatif[2]. Cependant, il aurait un rôle facilitateur sur la formation de l'athérome[3].
-La protéine Keap1 se fixe sur la protéine Nrf2 pour l'inhiber[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a un rôle protecteur contre le stress oxydatif. Cependant, il aurait un rôle facilitateur sur la formation de l'athérome.
+La protéine Keap1 se fixe sur la protéine Nrf2 pour l'inhiber.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La stimulation du Nrf2 est une cible potentielle pour le traitement de certaines maladies neuro-dégénératives[5], ou l'épilepsie[6], ou pour prévenir les complications du diabète[7].
-Cette stimulation peut être fait soit de manière pharmacologique, soit par thérapie génique en apportant le gène NFE2L2 localement[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stimulation du Nrf2 est une cible potentielle pour le traitement de certaines maladies neuro-dégénératives, ou l'épilepsie, ou pour prévenir les complications du diabète.
+Cette stimulation peut être fait soit de manière pharmacologique, soit par thérapie génique en apportant le gène NFE2L2 localement.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Phytomédicaments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une revue de la littérature, il n'existe pas suffisamment de preuves de qualité élevée indiquant que les phytomédicaments activent le Nrf2 chez l'homme[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une revue de la littérature, il n'existe pas suffisamment de preuves de qualité élevée indiquant que les phytomédicaments activent le Nrf2 chez l'homme.
 </t>
         </is>
       </c>
